--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2474905.51786606</v>
+        <v>-2477810.390013213</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>115.7979384244673</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>237.1298127151658</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>177.8873763559135</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.4736908254684</v>
       </c>
       <c r="F4" t="n">
-        <v>53.18391593353536</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>169.9659176875417</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>93.75936914444252</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>57.0738117776577</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>20.97516701831636</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>169.0167291702124</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>402.8016908482799</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>58.24651141986396</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>45.73305741335781</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>59.39494394985509</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>71.60395572454127</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>45.66054613217651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
         <v>142.9621736065881</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652732</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352485</v>
@@ -2533,16 +2533,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652576</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317899</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972037</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972037</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1332.928355697341</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1422.958510780817</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.958510780817</v>
+        <v>2109.667527737275</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1719.528195761463</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.6641090259557</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C4" t="n">
-        <v>107.6641090259557</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D4" t="n">
-        <v>107.6641090259557</v>
+        <v>106.9467099268982</v>
       </c>
       <c r="E4" t="n">
-        <v>107.6641090259557</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4525,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>556.4462390675031</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>328.4566881694858</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>107.6641090259557</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
         <v>864.6405432696254</v>
@@ -4553,7 +4553,7 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.299938187446</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.299938187446</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D8" t="n">
-        <v>855.0342395806956</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E8" t="n">
-        <v>855.0342395806956</v>
+        <v>467.7588773658102</v>
       </c>
       <c r="F8" t="n">
-        <v>444.0483347910881</v>
+        <v>460.8133766166067</v>
       </c>
       <c r="G8" t="n">
-        <v>431.0009570679196</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>112.7778418404291</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,19 +4805,19 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1509.677104638204</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2136.984772698051</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.365536512648</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1599.899778251568</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1599.899778251568</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>376.804469925216</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>376.804469925216</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>376.804469925216</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>376.804469925216</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>376.804469925216</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1007.682655791469</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1007.682655791469</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>1007.682655791469</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="V10" t="n">
-        <v>752.9981675855821</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>786.442485653473</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>558.4529347554557</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>558.4529347554557</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,25 +5039,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,22 +5413,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5838,16 +5838,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319336</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150036</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942668</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580128</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345491</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384035</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,25 +6406,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6874,10 +6874,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,28 +7573,28 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7795,13 +7795,13 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,13 +7810,13 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>34.4292999785705</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>176.8008973295432</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>112.1111560022472</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>191.8437243225555</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>93.96027182110078</v>
       </c>
       <c r="F4" t="n">
-        <v>92.23713208939589</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>109.4223302771033</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -26317,10 +26317,10 @@
         <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225015</v>
@@ -26332,28 +26332,28 @@
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.04424660711</v>
+      </c>
+      <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="K2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="P2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808062</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682766</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682775</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682775</v>
-      </c>
       <c r="I4" t="n">
-        <v>13668.39582977624</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="J4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="N4" t="n">
         <v>13668.39582977623</v>
       </c>
-      <c r="K4" t="n">
-        <v>13668.39582977624</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13668.3958297762</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13668.39582977623</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>13668.39582977622</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-760864.1675428047</v>
+        <v>-761328.4643348292</v>
       </c>
       <c r="C6" t="n">
         <v>-272255.4492798357</v>
@@ -26528,40 +26528,40 @@
         <v>-428059.2553736307</v>
       </c>
       <c r="E6" t="n">
-        <v>-857674.0927791462</v>
+        <v>-857708.8307045815</v>
       </c>
       <c r="F6" t="n">
-        <v>-86621.40139833975</v>
+        <v>-86656.13932377541</v>
       </c>
       <c r="G6" t="n">
-        <v>-86621.4013983398</v>
+        <v>-86656.13932377542</v>
       </c>
       <c r="H6" t="n">
-        <v>-86621.40139833975</v>
+        <v>-86656.13932377539</v>
       </c>
       <c r="I6" t="n">
         <v>-115734.1854307163</v>
       </c>
       <c r="J6" t="n">
-        <v>-272729.6866296775</v>
+        <v>-272729.6866296774</v>
       </c>
       <c r="K6" t="n">
-        <v>-96306.46743708453</v>
+        <v>-96306.46743708452</v>
       </c>
       <c r="L6" t="n">
+        <v>-96306.46743708452</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-220514.978145143</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-115734.1854307164</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-96306.46743708452</v>
+      </c>
+      <c r="P6" t="n">
         <v>-96306.4674370845</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-220514.9781451431</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-115734.1854307162</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-96306.4674370845</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-96306.46743708452</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.881784197001252e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>249.4749533465403</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>116.5570806490493</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>157.4647983638468</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>312.6572889008114</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>146.2716540803115</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>56.01837628787189</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>10.11521309765692</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>60.24952947402633</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>159.6328244867608</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28068,10 +28068,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>227.1280543867359</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709969</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,7 +32090,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286971</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,22 +34451,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O45" t="n">
-        <v>665.2579603615019</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>206.3172043391357</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>377.4642727362752</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066788</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O45" t="n">
-        <v>522.6617159170574</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
